--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rbp4</t>
+  </si>
+  <si>
+    <t>Stra6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rbp4</t>
-  </si>
-  <si>
-    <t>Stra6</t>
   </si>
 </sst>
 </file>
@@ -522,25 +525,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.340836</v>
+        <v>0.01364166666666667</v>
       </c>
       <c r="H2">
-        <v>7.022508</v>
+        <v>0.040925</v>
       </c>
       <c r="I2">
-        <v>0.9201365010625943</v>
+        <v>0.005793924852122192</v>
       </c>
       <c r="J2">
-        <v>0.945301530316583</v>
+        <v>0.005793924852122191</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7050613333333332</v>
+        <v>0.7050613333333334</v>
       </c>
       <c r="N2">
         <v>2.115184</v>
       </c>
       <c r="O2">
-        <v>0.5269220019002417</v>
+        <v>0.6029366303164088</v>
       </c>
       <c r="P2">
-        <v>0.6255697661075378</v>
+        <v>0.6949112282957692</v>
       </c>
       <c r="Q2">
-        <v>1.650432951274666</v>
+        <v>0.009618211688888892</v>
       </c>
       <c r="R2">
-        <v>14.853896561472</v>
+        <v>0.08656390520000001</v>
       </c>
       <c r="S2">
-        <v>0.4848401671613861</v>
+        <v>0.003493369526645051</v>
       </c>
       <c r="T2">
-        <v>0.5913520572212424</v>
+        <v>0.004026263435641615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,25 +587,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.340836</v>
+        <v>0.01364166666666667</v>
       </c>
       <c r="H3">
-        <v>7.022508</v>
+        <v>0.040925</v>
       </c>
       <c r="I3">
-        <v>0.9201365010625943</v>
+        <v>0.005793924852122192</v>
       </c>
       <c r="J3">
-        <v>0.945301530316583</v>
+        <v>0.005793924852122191</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -611,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.633014</v>
+        <v>0.4643175</v>
       </c>
       <c r="N3">
-        <v>1.266028</v>
+        <v>0.928635</v>
       </c>
       <c r="O3">
-        <v>0.4730779980997582</v>
+        <v>0.3970633696835912</v>
       </c>
       <c r="P3">
-        <v>0.3744302338924623</v>
+        <v>0.3050887717042308</v>
       </c>
       <c r="Q3">
-        <v>1.481781959704</v>
+        <v>0.006334064562500001</v>
       </c>
       <c r="R3">
-        <v>8.890691758223999</v>
+        <v>0.038004387375</v>
       </c>
       <c r="S3">
-        <v>0.4352963339012081</v>
+        <v>0.002300555325477141</v>
       </c>
       <c r="T3">
-        <v>0.3539494730953407</v>
+        <v>0.001767661416480576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,25 +649,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2031735</v>
+        <v>2.340836</v>
       </c>
       <c r="H4">
-        <v>0.406347</v>
+        <v>7.022508</v>
       </c>
       <c r="I4">
-        <v>0.07986349893740569</v>
+        <v>0.9942060751478778</v>
       </c>
       <c r="J4">
-        <v>0.05469846968341689</v>
+        <v>0.9942060751478778</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7050613333333332</v>
+        <v>0.7050613333333334</v>
       </c>
       <c r="N4">
         <v>2.115184</v>
       </c>
       <c r="O4">
-        <v>0.5269220019002417</v>
+        <v>0.6029366303164088</v>
       </c>
       <c r="P4">
-        <v>0.6255697661075378</v>
+        <v>0.6949112282957692</v>
       </c>
       <c r="Q4">
-        <v>0.143249778808</v>
+        <v>1.650432951274667</v>
       </c>
       <c r="R4">
-        <v>0.8594986728479999</v>
+        <v>14.853896561472</v>
       </c>
       <c r="S4">
-        <v>0.04208183473885563</v>
+        <v>0.5994432607897637</v>
       </c>
       <c r="T4">
-        <v>0.03421770888629535</v>
+        <v>0.6908849648601276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2031735</v>
+        <v>2.340836</v>
       </c>
       <c r="H5">
-        <v>0.406347</v>
+        <v>7.022508</v>
       </c>
       <c r="I5">
-        <v>0.07986349893740569</v>
+        <v>0.9942060751478778</v>
       </c>
       <c r="J5">
-        <v>0.05469846968341689</v>
+        <v>0.9942060751478778</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -735,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.633014</v>
+        <v>0.4643175</v>
       </c>
       <c r="N5">
-        <v>1.266028</v>
+        <v>0.928635</v>
       </c>
       <c r="O5">
-        <v>0.4730779980997582</v>
+        <v>0.3970633696835912</v>
       </c>
       <c r="P5">
-        <v>0.3744302338924623</v>
+        <v>0.3050887717042308</v>
       </c>
       <c r="Q5">
-        <v>0.128611669929</v>
+        <v>1.08689111943</v>
       </c>
       <c r="R5">
-        <v>0.5144466797159999</v>
+        <v>6.52134671658</v>
       </c>
       <c r="S5">
-        <v>0.03778166419855005</v>
+        <v>0.3947628143581141</v>
       </c>
       <c r="T5">
-        <v>0.02048076079712154</v>
+        <v>0.3033211102877502</v>
       </c>
     </row>
   </sheetData>
